--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1597710.24035109</v>
+        <v>1590364.263461425</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2083705.798332965</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1702443.552109826</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10628372.86897383</v>
+        <v>10845187.75981517</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>268.0457851141061</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>141.807498131858</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -709,13 +709,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>9.27559683049698</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>156.1271626621472</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>156.7418470016292</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>28.42119448601593</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>27.45797858609807</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>262.6053326690005</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>165.2346790503161</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>155.211488636581</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>80.88877949312959</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281403</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.3168195681179</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>99.90681807664348</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958678</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183531</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>29.3220157029459</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>106.5654198538158</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>277.5948985960645</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664348</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958678</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183531</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>165.0140383262328</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>140.0424879565125</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>101.4169444883358</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2061,16 +2061,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>148.4655527091738</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>3.911519871443938</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>411.9645167896915</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>153.0490377485341</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>67.61524188852407</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>127.9288390426633</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>161.0156334937747</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>157.2425576766694</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>191.5293352935464</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>21.2122437417667</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.64843562452423</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>183.1796758467</v>
+        <v>253.1488561805826</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>104.3370797092945</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>182.8414065694712</v>
       </c>
     </row>
     <row r="44">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,10 +4149,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>113.6635323293995</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>155.8385935972304</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1307.111989013772</v>
+        <v>1095.807382993972</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1095.807382993972</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1095.807382993972</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1095.807382993972</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
@@ -4336,46 +4336,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W2" t="n">
-        <v>2070.717079250664</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X2" t="n">
-        <v>1697.251320989584</v>
+        <v>1485.946714969784</v>
       </c>
       <c r="Y2" t="n">
-        <v>1307.111989013772</v>
+        <v>1095.807382993972</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4430,28 +4430,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810048</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.683768698139</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C5" t="n">
-        <v>1194.683768698139</v>
+        <v>1624.583944532628</v>
       </c>
       <c r="D5" t="n">
-        <v>1194.683768698139</v>
+        <v>1624.583944532628</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1238.795691934384</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>827.8097871447767</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>409.8459790429636</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>82.6512590789664</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.683768698139</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4649,28 +4649,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.535689181137</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>670.9767331549068</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>670.9767331549068</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810045</v>
+        <v>670.9767331549068</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>670.9767331549068</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>670.9767331549068</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>670.9767331549068</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>670.9767331549068</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>450.1841540113767</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.915471247703</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.952954307291</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D8" t="n">
-        <v>1122.952954307291</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>737.1647017090468</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2080.404530622508</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.515311311824</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>210.7222632714564</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C10" t="n">
-        <v>210.7222632714564</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D10" t="n">
-        <v>210.7222632714564</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E10" t="n">
-        <v>210.7222632714564</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>210.7222632714564</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>617.0062271882081</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694737</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="X10" t="n">
-        <v>210.7222632714564</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y10" t="n">
-        <v>210.7222632714564</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1597.994168061634</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>1229.031651121223</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>870.7659525144722</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>484.9776999162281</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>73.9917951266205</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>73.9917951266205</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>73.9917951266205</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>262.6316941403561</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>666.098807160401</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1218.912065406599</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>2477.937544449755</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3025.098749216831</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.413795556125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>3699.589756331025</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>3699.589756331025</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>3543.374718827853</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>3332.953688961067</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>3079.261985706218</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>2748.199098362647</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>2748.199098362647</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>2374.733340101568</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>1984.594008125756</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8126299914996</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>192.6510469835158</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>522.0794512893251</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1026.440991155443</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1205.938327510047</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1452.219619273625</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2001.655628026347</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2425.623396507183</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>966.2846383497852</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C13" t="n">
-        <v>966.2846383497852</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D13" t="n">
-        <v>816.1679989374494</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E13" t="n">
-        <v>668.2549053550563</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>521.3649578571459</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>352.7581128525293</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>198.5034697522943</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>73.9917951266205</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>175.03972472223</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>359.8727196230479</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>565.1423203422854</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>770.9656851783893</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>945.0605805669878</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1070.508157165603</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>966.2846383497852</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>966.2846383497852</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>966.2846383497852</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>966.2846383497852</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>966.2846383497852</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>966.2846383497852</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X13" t="n">
-        <v>966.2846383497852</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y13" t="n">
-        <v>966.2846383497852</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2196.616170759897</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>1827.653653819485</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1469.387955212735</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1083.599702614491</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>672.6137978248832</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>392.2149103541111</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>73.9917951266205</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>262.6316941403561</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>666.0988071604011</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.912065406599</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.937544449755</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216832</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.413795556125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.589756331025</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.589756331025</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>3699.589756331025</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>3699.589756331025</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>3699.589756331025</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3699.589756331025</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3346.821101060911</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>2973.355342799831</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2583.216010824019</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8126299914996</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>192.6510469835158</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>522.0794512893251</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1026.440991155443</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1253.562877620961</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1452.219619273625</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2001.655628026347</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2425.623396507183</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S15" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>73.9917951266205</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>175.03972472223</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>359.8727196230479</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422854</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783893</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>945.0605805669878</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1070.508157165603</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1073.926476585963</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1073.926476585963</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>907.2456297917881</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>618.093453369468</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>363.4089651635811</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W16" t="n">
-        <v>73.9917951266205</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X16" t="n">
-        <v>73.9917951266205</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.9917951266205</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,40 +5527,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L18" t="n">
-        <v>1088.787142923176</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M18" t="n">
-        <v>1396.107276203138</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1725.969903867171</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2005.509969085868</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9110074201016</v>
+        <v>496.665036439558</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>496.665036439558</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>462.7283310300503</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>506.7814158330673</v>
+        <v>416.118479144934</v>
       </c>
       <c r="C22" t="n">
-        <v>506.7814158330673</v>
+        <v>247.1822962170271</v>
       </c>
       <c r="D22" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1494.965240384727</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>1205.836601598285</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V22" t="n">
-        <v>1205.836601598285</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W22" t="n">
-        <v>916.4194315613244</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="X22" t="n">
-        <v>688.429880663307</v>
+        <v>416.118479144934</v>
       </c>
       <c r="Y22" t="n">
-        <v>688.429880663307</v>
+        <v>416.118479144934</v>
       </c>
     </row>
     <row r="23">
@@ -5968,13 +5968,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
         <v>904.3190116155888</v>
@@ -5986,19 +5986,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6007,28 +6007,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1120.535867722626</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>865.8513795167394</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>576.4342094797788</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>576.4342094797788</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,10 +6244,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4503.139178847509</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="C28" t="n">
-        <v>4334.202995919602</v>
+        <v>523.4447279085757</v>
       </c>
       <c r="D28" t="n">
-        <v>4184.086356507267</v>
+        <v>373.32808849624</v>
       </c>
       <c r="E28" t="n">
-        <v>4036.173262924874</v>
+        <v>373.32808849624</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426963</v>
+        <v>226.4381409983296</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>4860.854573014292</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>4860.854573014292</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W28" t="n">
-        <v>4571.437402977332</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X28" t="n">
-        <v>4571.437402977332</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y28" t="n">
-        <v>4571.437402977332</v>
+        <v>692.3809108364826</v>
       </c>
     </row>
     <row r="29">
@@ -6442,70 +6442,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,28 +6530,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C31" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6651,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352015</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W31" t="n">
-        <v>954.8146123150548</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X31" t="n">
-        <v>726.8250614170374</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y31" t="n">
-        <v>726.8250614170374</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,22 +6685,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6718,13 +6718,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6767,25 +6767,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1194.377192075742</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>970.5917768652473</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>681.4631380788055</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>426.7786498729187</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>426.7786498729187</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>426.7786498729187</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>426.7786498729187</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,40 +6928,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7004,25 +7004,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643586</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>266.1532743881928</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028583</v>
+        <v>268.760239702689</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028583</v>
+        <v>118.6436002903532</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1440.685527502827</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1440.685527502827</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1440.685527502827</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1440.685527502827</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>1186.00103929694</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>896.5838692599799</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>668.5943183619626</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y37" t="n">
-        <v>447.8017392184324</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,13 +7162,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7177,7 +7177,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,10 +7192,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D40" t="n">
         <v>97.21709146028584</v>
@@ -7365,19 +7365,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744681</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="41">
@@ -7393,25 +7393,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1096.475226584133</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C43" t="n">
-        <v>927.5390436562259</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7605,16 +7605,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>1498.916270557902</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>1278.123691414372</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="44">
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>675.007103038344</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C46" t="n">
-        <v>675.007103038344</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D46" t="n">
-        <v>675.007103038344</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>527.0940094559509</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>380.2040619580405</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>212.0287402778611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="U46" t="n">
-        <v>675.007103038344</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="V46" t="n">
-        <v>675.007103038344</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="W46" t="n">
-        <v>675.007103038344</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X46" t="n">
-        <v>675.007103038344</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y46" t="n">
-        <v>675.007103038344</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>48.10560617264096</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>48.10560617264085</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L18" t="n">
-        <v>169.2863157167184</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720748</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>4.335043546848084</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>117.1119469436233</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,13 +23433,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
-        <v>17.69584188176918</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.60776181397561</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001187</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>135.3220053498723</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>123.2665578794171</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176918</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677914</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>58.35886639452585</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>146.4805103800785</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>78.41503569360148</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.1499203090385492</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.6360411869453</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>133.1883146500433</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>112.2167382934132</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>38.56472942071427</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.81634668816261</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24891,10 +24891,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>64.30500338171987</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>6.391474690056896</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>125.2217189048025</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>52.31591677926858</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25368,7 +25368,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>103.0576765518773</v>
+        <v>33.08849621799479</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>44.27839330891788</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>35.74324678262357</v>
       </c>
     </row>
     <row r="44">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>35.25029603813667</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>65.70896746115884</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26088,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>801712.5440420803</v>
+        <v>926047.2283490477</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>801712.5440420802</v>
+        <v>926047.2283490476</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>926047.2283490478</v>
+        <v>926047.2283490477</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>926047.2283490477</v>
+        <v>926047.2283490478</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>926047.2283490477</v>
+        <v>926047.2283490478</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>926047.2283490477</v>
+        <v>926047.2283490478</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.017671963</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.0176719629</v>
       </c>
-      <c r="C2" t="n">
-        <v>472099.017671963</v>
-      </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>388396.0040473216</v>
+        <v>449683.418698365</v>
       </c>
       <c r="F2" t="n">
-        <v>388396.0040473217</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="G2" t="n">
         <v>449683.4186983652</v>
@@ -26337,25 +26337,25 @@
         <v>449683.4186983652</v>
       </c>
       <c r="J2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983654</v>
       </c>
       <c r="K2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="L2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="M2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="N2" t="n">
+        <v>449683.4186983654</v>
+      </c>
+      <c r="O2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="P2" t="n">
         <v>449683.4186983652</v>
-      </c>
-      <c r="M2" t="n">
-        <v>449683.4186983652</v>
-      </c>
-      <c r="N2" t="n">
-        <v>449683.4186983653</v>
-      </c>
-      <c r="O2" t="n">
-        <v>449683.4186983652</v>
-      </c>
-      <c r="P2" t="n">
-        <v>449683.4186983653</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>248146.7686188426</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>263762.8892659105</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62453.05588965289</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>69864.88484991125</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>147917.0487159208</v>
+      </c>
+      <c r="C4" t="n">
+        <v>147917.0487159208</v>
+      </c>
+      <c r="D4" t="n">
         <v>147917.0487159209</v>
       </c>
-      <c r="C4" t="n">
-        <v>147917.0487159209</v>
-      </c>
-      <c r="D4" t="n">
-        <v>147917.0487159208</v>
-      </c>
       <c r="E4" t="n">
-        <v>8673.279618076551</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>8673.279618076551</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007483</v>
@@ -26441,7 +26441,7 @@
         <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="K4" t="n">
         <v>7916.731656007484</v>
@@ -26450,16 +26450,16 @@
         <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007486</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="O4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007486</v>
+        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26469,40 +26469,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>69171.54328360136</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>69171.54328360136</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-348644.9883219119</v>
       </c>
       <c r="C6" t="n">
-        <v>241322.8908926327</v>
+        <v>241322.8908926326</v>
       </c>
       <c r="D6" t="n">
-        <v>241322.8908926327</v>
+        <v>241322.8908926326</v>
       </c>
       <c r="E6" t="n">
-        <v>62404.41252680107</v>
+        <v>-176355.266642977</v>
       </c>
       <c r="F6" t="n">
-        <v>310551.1811456438</v>
+        <v>348804.7698339195</v>
       </c>
       <c r="G6" t="n">
-        <v>86016.47182773062</v>
+        <v>348804.7698339195</v>
       </c>
       <c r="H6" t="n">
-        <v>349779.3610936411</v>
+        <v>348804.7698339195</v>
       </c>
       <c r="I6" t="n">
-        <v>349779.3610936411</v>
+        <v>348804.7698339194</v>
       </c>
       <c r="J6" t="n">
-        <v>173356.1419010483</v>
+        <v>172381.5506413267</v>
       </c>
       <c r="K6" t="n">
-        <v>349779.3610936411</v>
+        <v>348804.7698339195</v>
       </c>
       <c r="L6" t="n">
-        <v>349779.3610936411</v>
+        <v>348804.7698339195</v>
       </c>
       <c r="M6" t="n">
-        <v>287326.3052039883</v>
+        <v>214003.7546000823</v>
       </c>
       <c r="N6" t="n">
-        <v>349779.3610936412</v>
+        <v>348804.7698339197</v>
       </c>
       <c r="O6" t="n">
-        <v>279914.4762437298</v>
+        <v>348804.7698339195</v>
       </c>
       <c r="P6" t="n">
-        <v>349779.3610936413</v>
+        <v>348804.7698339195</v>
       </c>
     </row>
   </sheetData>
@@ -26740,31 +26740,31 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380635</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380635</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>924.8974390827563</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>924.8974390827563</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215.7324361209768</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>236.9063051160368</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>250.6101663282005</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>290.3162041708168</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282005</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708168</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282005</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708168</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>97.22710665690141</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>265.0685476098535</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>125.6900249618412</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>56.01837628787166</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>225.1885230706326</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>123.5101217588453</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.2072133940598</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>144.270713072711</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>85.98948845797324</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28025,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>12.09831362246993</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>171.2488638306984</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.385833569198244</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055151</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>91.97984867651536</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>303.4869768779013</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>376.5024309712521</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>418.9314987074814</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>425.7102483359659</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822508</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>343.0858495426692</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>257.643184845757</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>54.36718245810503</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>10.44398644916532</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>43.95082441182829</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>120.604421484738</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>206.1321659070423</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>277.1701353512815</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>323.4444746842445</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>332.0050874900644</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>303.7197925947069</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>243.7619099671567</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>162.9483813607453</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080783</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>23.7110498578462</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308303</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08398246702897129</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>9.515075838206991</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>32.18391704784122</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490359</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>124.3381075790238</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>159.1099695889949</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>167.7591540676922</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>163.7702163441087</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>151.2683017714133</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.61489115104759</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>48.12020970937805</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>18.65071613685356</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>4.572684707522782</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05837469839390794</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198244</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055151</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651536</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779013</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712521</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074814</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>425.7102483359659</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822508</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426692</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.643184845757</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810503</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916532</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>43.95082441182829</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>120.604421484738</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070423</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512815</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842445</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900644</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947069</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671567</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607453</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080783</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>23.7110498578462</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308303</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08398246702897129</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838206991</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784122</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490359</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>124.3381075790238</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>159.1099695889949</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676922</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441087</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714133</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.61489115104759</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937805</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685356</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522782</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390794</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.5453525391271</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>407.5425384040855</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517153</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730411</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513591</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233095</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>433.6515619588823</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.6524856312122</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.8578301584801</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>332.7559639452619</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748665</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>181.3104407622262</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>248.7689815793721</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269919</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>428.2502711927636</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>233.0438950105729</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>186.6999948493111</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>207.3430310295328</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>207.9023887233373</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>175.853429685453</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>126.7147238369852</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.452847899353202</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391271</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040855</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517153</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730411</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513591</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233095</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588823</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312122</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>119.8578301584801</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>332.7559639452619</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748665</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>229.4160469348671</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>200.6633754067311</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269919</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>428.2502711927636</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0438950105729</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493111</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295328</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233373</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>175.853429685453</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369852</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353202</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L18" t="n">
-        <v>418.5440206727427</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
@@ -35983,10 +35983,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377847</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
